--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\codevofact\public\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A9729E-169E-4364-80FC-F810A3C23833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E439EB-35D5-45C5-A733-2E7F0F97B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Nombre</t>
   </si>
@@ -274,6 +274,51 @@
   </si>
   <si>
     <t>Modelo 2</t>
+  </si>
+  <si>
+    <t>Producto Test 3</t>
+  </si>
+  <si>
+    <t>IA00003</t>
+  </si>
+  <si>
+    <t>Modelo 3</t>
+  </si>
+  <si>
+    <t>Desc 3</t>
+  </si>
+  <si>
+    <t>Nombre sec 3</t>
+  </si>
+  <si>
+    <t>Producto Test 4</t>
+  </si>
+  <si>
+    <t>IA00004</t>
+  </si>
+  <si>
+    <t>Modelo 4</t>
+  </si>
+  <si>
+    <t>Desc 4</t>
+  </si>
+  <si>
+    <t>Nombre sec 4</t>
+  </si>
+  <si>
+    <t>Producto Test 5</t>
+  </si>
+  <si>
+    <t>IA00005</t>
+  </si>
+  <si>
+    <t>Modelo 5</t>
+  </si>
+  <si>
+    <t>Desc 5</t>
+  </si>
+  <si>
+    <t>Nombre sec 5</t>
   </si>
 </sst>
 </file>
@@ -311,8 +356,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -350,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -364,14 +408,311 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -406,306 +747,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -722,29 +763,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}" name="Tabla1" displayName="Tabla1" ref="A1:T3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:T3" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}" name="Tabla1" displayName="Tabla1" ref="A1:T6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T6" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{5C8C03B3-6452-4FB9-9BD4-9DCCD854D1D2}" name="Nombre" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{1BF2E0F0-D508-4F9C-8E6D-63C20345DC6D}" name="Código Interno" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{2142392A-8DE8-453B-9714-FF2A6342DAD6}" name="Modelo" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{1E7B5D1D-1B38-4F79-996C-0D7E70119416}" name="Código Sunat" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{3CE2B6F3-2067-441B-B7A9-39781E05C359}" name="Código Tipo de Unidad" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{F4FE0822-A874-4FE4-B9F5-1F4E7831A0FF}" name="Código Tipo de Moneda" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{EC0BE49C-5992-49E0-B3C0-7021B3139550}" name="Precio Unitario Venta" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{D213188B-5D96-4137-9FE8-9253A21CD745}" name="Codigo Tipo de Afectación del Igv Venta" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{6C3A1ADE-222E-4154-9BBF-E80C72A9DE0F}" name="Tiene Igv" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A4402CC8-4D71-4C36-9A0C-3F7AB27148C3}" name="Precio Unitario Compra" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{49B1EA79-D21C-420E-8A17-82C8ED6F6FCE}" name="Codigo Tipo de Afectación del Igv Compra" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{27E022FD-F4B6-4853-B934-3EC0279D8BCB}" name="Stock" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{68A6FC4B-33E5-4114-BF29-222986CD4F96}" name="Stock Mínimo" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{D06F186A-CA96-4891-867A-1DD48121DD47}" name="Categoria" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{3A938DE1-B53A-40CF-B8ED-10EB212DC5F9}" name="Marca" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{75F12F0D-49F7-4296-BE9D-50DE5AABA866}" name="Descripcion" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{C382419D-DFB8-40CE-9646-824E64C1F46E}" name="Nombre secundario" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{D06E74DE-AA84-4363-8D74-37A81E75C067}" name="Código lote" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{8EA7B3CA-5002-4A10-AA1A-5BB0E188F165}" name="Fec. Vencimiento" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{4151B9FC-238A-48C5-885B-702E651C7CB4}" name="Cód barras" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5C8C03B3-6452-4FB9-9BD4-9DCCD854D1D2}" name="Nombre" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{1BF2E0F0-D508-4F9C-8E6D-63C20345DC6D}" name="Código Interno" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2142392A-8DE8-453B-9714-FF2A6342DAD6}" name="Modelo" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1E7B5D1D-1B38-4F79-996C-0D7E70119416}" name="Código Sunat" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{3CE2B6F3-2067-441B-B7A9-39781E05C359}" name="Código Tipo de Unidad" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{F4FE0822-A874-4FE4-B9F5-1F4E7831A0FF}" name="Código Tipo de Moneda" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{EC0BE49C-5992-49E0-B3C0-7021B3139550}" name="Precio Unitario Venta" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{D213188B-5D96-4137-9FE8-9253A21CD745}" name="Codigo Tipo de Afectación del Igv Venta" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{6C3A1ADE-222E-4154-9BBF-E80C72A9DE0F}" name="Tiene Igv" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{A4402CC8-4D71-4C36-9A0C-3F7AB27148C3}" name="Precio Unitario Compra" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{49B1EA79-D21C-420E-8A17-82C8ED6F6FCE}" name="Codigo Tipo de Afectación del Igv Compra" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{27E022FD-F4B6-4853-B934-3EC0279D8BCB}" name="Stock" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{68A6FC4B-33E5-4114-BF29-222986CD4F96}" name="Stock Mínimo" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{D06F186A-CA96-4891-867A-1DD48121DD47}" name="Categoria" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{3A938DE1-B53A-40CF-B8ED-10EB212DC5F9}" name="Marca" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{75F12F0D-49F7-4296-BE9D-50DE5AABA866}" name="Descripcion" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{C382419D-DFB8-40CE-9646-824E64C1F46E}" name="Nombre secundario" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{D06E74DE-AA84-4363-8D74-37A81E75C067}" name="Código lote" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{8EA7B3CA-5002-4A10-AA1A-5BB0E188F165}" name="Fec. Vencimiento" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{4151B9FC-238A-48C5-885B-702E651C7CB4}" name="Cód barras" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1047,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1251,10 +1292,177 @@
         <v>10000002</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S8" s="5"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3">
+        <v>82041386</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <v>179.75</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3">
+        <v>179.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>90</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="3">
+        <v>10000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3">
+        <v>112961069</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>209.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3">
+        <v>209</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>130</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3">
+        <v>10000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3">
+        <v>143880752</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
+        <v>239.25</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>238.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>170</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="3">
+        <v>10000005</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\codevofact\public\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E439EB-35D5-45C5-A733-2E7F0F97B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFB6D5-9459-4EEE-9479-7B7151A4A9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +30,7 @@
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FE45F371-3EE1-45C9-90A1-5AC7416873FA}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{FE45F371-3EE1-45C9-90A1-5AC7416873FA}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4E6F0B69-4335-4A01-A300-5E2C5152F67E}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{4E6F0B69-4335-4A01-A300-5E2C5152F67E}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FC2DD9E2-9DD1-41FE-8537-9C8988D746B4}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{FC2DD9E2-9DD1-41FE-8537-9C8988D746B4}">
       <text>
         <r>
           <rPr>
@@ -102,65 +102,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{DE471A41-C68B-4D3F-85D3-DD27A101E99D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>HP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Vacio
-(Solo productos con fecha de vencimiento)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{0DFCE7A7-EDBD-4A62-8D49-936D87EAE529}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>HP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Vacio (Solo productos en lote)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
-  <si>
-    <t>Nombre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Código Interno</t>
   </si>
@@ -177,9 +124,6 @@
     <t>Código Tipo de Moneda</t>
   </si>
   <si>
-    <t>Precio Unitario Venta</t>
-  </si>
-  <si>
     <t>Codigo Tipo de Afectación del Igv Venta</t>
   </si>
   <si>
@@ -210,12 +154,6 @@
     <t>Nombre secundario</t>
   </si>
   <si>
-    <t>Código lote</t>
-  </si>
-  <si>
-    <t>Fec. Vencimiento</t>
-  </si>
-  <si>
     <t>Cód barras</t>
   </si>
   <si>
@@ -231,21 +169,9 @@
     <t>Adidas</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Producto Test 1</t>
-  </si>
-  <si>
-    <t>IA00001</t>
-  </si>
-  <si>
-    <t>IA00002</t>
-  </si>
-  <si>
     <t>Hombre</t>
   </si>
   <si>
@@ -267,67 +193,82 @@
     <t>Nombre sec 2</t>
   </si>
   <si>
-    <t>Producto Test 2</t>
-  </si>
-  <si>
-    <t>Modelo 1</t>
-  </si>
-  <si>
-    <t>Modelo 2</t>
-  </si>
-  <si>
-    <t>Producto Test 3</t>
-  </si>
-  <si>
-    <t>IA00003</t>
-  </si>
-  <si>
-    <t>Modelo 3</t>
-  </si>
-  <si>
     <t>Desc 3</t>
   </si>
   <si>
     <t>Nombre sec 3</t>
   </si>
   <si>
-    <t>Producto Test 4</t>
-  </si>
-  <si>
-    <t>IA00004</t>
-  </si>
-  <si>
-    <t>Modelo 4</t>
-  </si>
-  <si>
     <t>Desc 4</t>
   </si>
   <si>
     <t>Nombre sec 4</t>
   </si>
   <si>
-    <t>Producto Test 5</t>
-  </si>
-  <si>
-    <t>IA00005</t>
-  </si>
-  <si>
-    <t>Modelo 5</t>
-  </si>
-  <si>
     <t>Desc 5</t>
   </si>
   <si>
     <t>Nombre sec 5</t>
+  </si>
+  <si>
+    <t>Codigo de Marca</t>
+  </si>
+  <si>
+    <t>Nombre del Producto</t>
+  </si>
+  <si>
+    <t>IAL000001</t>
+  </si>
+  <si>
+    <t>IAL000002</t>
+  </si>
+  <si>
+    <t>IAL000003</t>
+  </si>
+  <si>
+    <t>IAL000004</t>
+  </si>
+  <si>
+    <t>IAL000005</t>
+  </si>
+  <si>
+    <t>PRODUCTO 1</t>
+  </si>
+  <si>
+    <t>PRODUCTO 2</t>
+  </si>
+  <si>
+    <t>PRODUCTO 3</t>
+  </si>
+  <si>
+    <t>PRODUCTO 4</t>
+  </si>
+  <si>
+    <t>PRODUCTO 5</t>
+  </si>
+  <si>
+    <t>Precio de Costo</t>
+  </si>
+  <si>
+    <t>% Descuento</t>
+  </si>
+  <si>
+    <t>Precio Marca</t>
+  </si>
+  <si>
+    <t>Precio Unitario Venta Concept</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Talla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,40 +340,130 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
@@ -763,29 +794,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}" name="Tabla1" displayName="Tabla1" ref="A1:T6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T6" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{5C8C03B3-6452-4FB9-9BD4-9DCCD854D1D2}" name="Nombre" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{1BF2E0F0-D508-4F9C-8E6D-63C20345DC6D}" name="Código Interno" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{2142392A-8DE8-453B-9714-FF2A6342DAD6}" name="Modelo" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{1E7B5D1D-1B38-4F79-996C-0D7E70119416}" name="Código Sunat" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{3CE2B6F3-2067-441B-B7A9-39781E05C359}" name="Código Tipo de Unidad" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{F4FE0822-A874-4FE4-B9F5-1F4E7831A0FF}" name="Código Tipo de Moneda" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{EC0BE49C-5992-49E0-B3C0-7021B3139550}" name="Precio Unitario Venta" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{D213188B-5D96-4137-9FE8-9253A21CD745}" name="Codigo Tipo de Afectación del Igv Venta" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{6C3A1ADE-222E-4154-9BBF-E80C72A9DE0F}" name="Tiene Igv" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{A4402CC8-4D71-4C36-9A0C-3F7AB27148C3}" name="Precio Unitario Compra" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{49B1EA79-D21C-420E-8A17-82C8ED6F6FCE}" name="Codigo Tipo de Afectación del Igv Compra" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{27E022FD-F4B6-4853-B934-3EC0279D8BCB}" name="Stock" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{68A6FC4B-33E5-4114-BF29-222986CD4F96}" name="Stock Mínimo" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{D06F186A-CA96-4891-867A-1DD48121DD47}" name="Categoria" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{3A938DE1-B53A-40CF-B8ED-10EB212DC5F9}" name="Marca" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{75F12F0D-49F7-4296-BE9D-50DE5AABA866}" name="Descripcion" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{C382419D-DFB8-40CE-9646-824E64C1F46E}" name="Nombre secundario" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{D06E74DE-AA84-4363-8D74-37A81E75C067}" name="Código lote" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{8EA7B3CA-5002-4A10-AA1A-5BB0E188F165}" name="Fec. Vencimiento" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{4151B9FC-238A-48C5-885B-702E651C7CB4}" name="Cód barras" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}" name="Tabla1" displayName="Tabla1" ref="A1:X6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X6" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{5C8C03B3-6452-4FB9-9BD4-9DCCD854D1D2}" name="Codigo de Marca" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{8049DA01-EBC4-49D6-9EC5-90755F1F681D}" name="Nombre del Producto" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1BF2E0F0-D508-4F9C-8E6D-63C20345DC6D}" name="Código Interno" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{2142392A-8DE8-453B-9714-FF2A6342DAD6}" name="Modelo" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{1E7B5D1D-1B38-4F79-996C-0D7E70119416}" name="Código Sunat" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{3CE2B6F3-2067-441B-B7A9-39781E05C359}" name="Código Tipo de Unidad" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F4FE0822-A874-4FE4-B9F5-1F4E7831A0FF}" name="Código Tipo de Moneda" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{EC0BE49C-5992-49E0-B3C0-7021B3139550}" name="Precio de Costo" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{DEE81E9E-4050-44CE-B5DF-43F287D3578F}" name="% Descuento" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{3030A2C9-FDC4-4A39-ACF2-54ED9F71145E}" name="Precio Marca" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D213188B-5D96-4137-9FE8-9253A21CD745}" name="Codigo Tipo de Afectación del Igv Venta" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{6C3A1ADE-222E-4154-9BBF-E80C72A9DE0F}" name="Tiene Igv" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{3D890253-018C-4B5A-8FCF-DD21FB874CDD}" name="Precio Unitario Venta Concept" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A4402CC8-4D71-4C36-9A0C-3F7AB27148C3}" name="Precio Unitario Compra" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{49B1EA79-D21C-420E-8A17-82C8ED6F6FCE}" name="Codigo Tipo de Afectación del Igv Compra" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{27E022FD-F4B6-4853-B934-3EC0279D8BCB}" name="Stock" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{68A6FC4B-33E5-4114-BF29-222986CD4F96}" name="Stock Mínimo" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{D06F186A-CA96-4891-867A-1DD48121DD47}" name="Categoria" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{3A938DE1-B53A-40CF-B8ED-10EB212DC5F9}" name="Marca" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{EC400D51-1227-4746-9977-C2DD7DB853F7}" name="Color" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{78DA3BA6-E503-4F6D-BF5B-42C997F8A510}" name="Talla" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{75F12F0D-49F7-4296-BE9D-50DE5AABA866}" name="Descripcion" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{C382419D-DFB8-40CE-9646-824E64C1F46E}" name="Nombre secundario" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{4151B9FC-238A-48C5-885B-702E651C7CB4}" name="Cód barras" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1088,378 +1123,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3"/>
-    <col min="16" max="16" width="14.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="10.5703125" style="3"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="39.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="2" customWidth="1"/>
+    <col min="19" max="21" width="10.5703125" style="2"/>
+    <col min="22" max="22" width="14.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="N2" s="2">
+        <v>120.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2">
+        <v>150</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3">
-        <v>20202020</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2">
+        <v>179.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="N5" s="2">
+        <v>209</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="2">
+        <v>238.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3">
-        <v>120.5</v>
-      </c>
-      <c r="K2" s="3">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="3">
-        <v>10000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3">
-        <v>51121703</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3">
-        <v>150</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3">
-        <v>150</v>
-      </c>
-      <c r="K3" s="3">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>50</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="W6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="3">
-        <v>10000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3">
-        <v>82041386</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3">
-        <v>179.75</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3">
-        <v>179.5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3">
-        <v>90</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="3">
-        <v>10000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3">
-        <v>112961069</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>209.5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3">
-        <v>209</v>
-      </c>
-      <c r="K5" s="3">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3">
-        <v>130</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="3">
-        <v>10000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3">
-        <v>143880752</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>239.25</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="3">
-        <v>238.5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3">
-        <v>170</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="3">
-        <v>10000005</v>
-      </c>
+      <c r="X6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\codevofact\public\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C533E-1BCC-4E6F-A40F-31A42BB1165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19669CBE-14F7-403C-9175-5F147D91F48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -248,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Código Interno</t>
   </si>
@@ -413,6 +415,9 @@
   </si>
   <si>
     <t>Precio venta de Final</t>
+  </si>
+  <si>
+    <t>Almacen</t>
   </si>
 </sst>
 </file>
@@ -523,7 +528,439 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -560,422 +997,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -992,36 +1013,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}" name="Tabla1" displayName="Tabla1" ref="A1:W6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:W6" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{5C8C03B3-6452-4FB9-9BD4-9DCCD854D1D2}" name="Código Interno" dataDxfId="24"/>
-    <tableColumn id="29" xr3:uid="{1CAAE5C6-331D-41A2-9E6C-9C2ED9E046EF}" name="Código de Marca" dataDxfId="23"/>
-    <tableColumn id="28" xr3:uid="{A90FC8A2-67AB-4BDA-8E17-1F584B311781}" name="Marca" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{8049DA01-EBC4-49D6-9EC5-90755F1F681D}" name="Nombre del Producto" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{63B929CD-7A11-4FBB-9822-686B7AFD6752}" name="Color" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{F021B829-D6AF-4477-AFA3-5E2C31F6CBCF}" name="Talla" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{1BA5FF8F-671A-4CCB-A1D0-1D04A10C5F08}" name="Precio Unitario Compra" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{EC0BE49C-5992-49E0-B3C0-7021B3139550}" name="Precio de Costo" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{3030A2C9-FDC4-4A39-ACF2-54ED9F71145E}" name="Precio Marca" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}" name="Tabla1" displayName="Tabla1" ref="A1:X6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X6" xr:uid="{BC05A68B-5976-4CCA-94A7-E43AECAAD874}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{5C8C03B3-6452-4FB9-9BD4-9DCCD854D1D2}" name="Código Interno" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{1CAAE5C6-331D-41A2-9E6C-9C2ED9E046EF}" name="Código de Marca" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{A90FC8A2-67AB-4BDA-8E17-1F584B311781}" name="Marca" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{8049DA01-EBC4-49D6-9EC5-90755F1F681D}" name="Nombre del Producto" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{63B929CD-7A11-4FBB-9822-686B7AFD6752}" name="Color" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{F021B829-D6AF-4477-AFA3-5E2C31F6CBCF}" name="Talla" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{1BA5FF8F-671A-4CCB-A1D0-1D04A10C5F08}" name="Precio Unitario Compra" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{EC0BE49C-5992-49E0-B3C0-7021B3139550}" name="Precio de Costo" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{3030A2C9-FDC4-4A39-ACF2-54ED9F71145E}" name="Precio Marca" dataDxfId="15">
       <calculatedColumnFormula>N2-(N2*J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{26227BF2-9DA0-4D83-892A-9E8F3FFD2B0E}" name="% Marca" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{6C3A1ADE-222E-4154-9BBF-E80C72A9DE0F}" name="Tiene Igv" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{3D890253-018C-4B5A-8FCF-DD21FB874CDD}" name="Precio Unitario Venta Concept" dataDxfId="13"/>
-    <tableColumn id="35" xr3:uid="{0A28E34D-9FC3-4B9A-9472-CE71FE07C72F}" name="% Descuento" dataDxfId="12"/>
-    <tableColumn id="41" xr3:uid="{6109F5B4-6888-4F50-AD12-C7F4FB8628AE}" name="Precio venta de Final" dataDxfId="11">
+    <tableColumn id="36" xr3:uid="{26227BF2-9DA0-4D83-892A-9E8F3FFD2B0E}" name="% Marca" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{6C3A1ADE-222E-4154-9BBF-E80C72A9DE0F}" name="Tiene Igv" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{3D890253-018C-4B5A-8FCF-DD21FB874CDD}" name="Precio Unitario Venta Concept" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{0A28E34D-9FC3-4B9A-9472-CE71FE07C72F}" name="% Descuento" dataDxfId="11"/>
+    <tableColumn id="41" xr3:uid="{6109F5B4-6888-4F50-AD12-C7F4FB8628AE}" name="Precio venta de Final" dataDxfId="10">
       <calculatedColumnFormula>Tabla1[[#This Row],[Precio Unitario Venta Concept]]-(Tabla1[[#This Row],[Precio Unitario Venta Concept]]*Tabla1[[#This Row],[% Descuento]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{27E022FD-F4B6-4853-B934-3EC0279D8BCB}" name="Stock" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{68A6FC4B-33E5-4114-BF29-222986CD4F96}" name="Stock Mínimo" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{75F12F0D-49F7-4296-BE9D-50DE5AABA866}" name="Descripcion" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{C382419D-DFB8-40CE-9646-824E64C1F46E}" name="Nombre secundario" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{B5FE576D-3868-4844-BED5-74B17C5576EA}" name="Código Tipo de Unidad" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{8D75061B-D053-4FAF-92BB-96BADF720A92}" name="Código Tipo de Moneda" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{54CDF8DE-E341-48B9-B935-DE2FE02492E2}" name="Codigo Tipo de Afectación del Igv Venta" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{A79911A2-47E0-44AB-9A8A-79B45C8A8E3D}" name="Codigo Tipo de Afectación del Igv Compra" dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{C4A2AA6D-7DA5-48C1-8921-65414A1C6F6F}" name="Cód barras" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{27E022FD-F4B6-4853-B934-3EC0279D8BCB}" name="Stock" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{68A6FC4B-33E5-4114-BF29-222986CD4F96}" name="Stock Mínimo" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{75F12F0D-49F7-4296-BE9D-50DE5AABA866}" name="Descripcion" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{C382419D-DFB8-40CE-9646-824E64C1F46E}" name="Nombre secundario" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{B5FE576D-3868-4844-BED5-74B17C5576EA}" name="Código Tipo de Unidad" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{8D75061B-D053-4FAF-92BB-96BADF720A92}" name="Código Tipo de Moneda" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{54CDF8DE-E341-48B9-B935-DE2FE02492E2}" name="Codigo Tipo de Afectación del Igv Venta" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{A79911A2-47E0-44AB-9A8A-79B45C8A8E3D}" name="Codigo Tipo de Afectación del Igv Compra" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{C4A2AA6D-7DA5-48C1-8921-65414A1C6F6F}" name="Cód barras" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A1E2C389-23B1-4377-851E-8429002D2EE1}" name="Almacen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1324,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1376,7 @@
     <col min="24" max="16384" width="10.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,8 +1446,11 @@
       <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1492,8 +1517,11 @@
         <v>10</v>
       </c>
       <c r="W2" s="6"/>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1560,8 +1588,11 @@
         <v>10</v>
       </c>
       <c r="W3" s="6"/>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1628,8 +1659,11 @@
         <v>10</v>
       </c>
       <c r="W4" s="6"/>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -1696,8 +1730,11 @@
         <v>10</v>
       </c>
       <c r="W5" s="6"/>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1764,6 +1801,9 @@
         <v>10</v>
       </c>
       <c r="W6" s="6"/>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
